--- a/articles.xlsx
+++ b/articles.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -438,6 +438,176 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>추석에 무차별 흉기 난동…5명 사상자 낸 40대 긴급체포(종합)</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>https://www.nocutnews.co.kr/news/5627990</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>노컷뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>"험담하고 다녀서"…추석 무차별 흉기 난동에 5명 사상</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>https://news.sbs.co.kr/news/endPage.do?news_id=N1006472942&amp;plink=ORI&amp;cooper=NAVER</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>SBS</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>추석연휴 음주운전 사망 0명…"통계집계 이래 처음"</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>http://www.newsis.com/view/?id=NISX20210922_0001590030&amp;cID=10201&amp;pID=10200</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>뉴시스</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>비대면 추석에… G마켓·옥션 행사 첫날 1000억 판매</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>https://biz.chosun.com/distribution/food/2021/09/22/LKQOPSAS2ZFXLNAE2CMCRZXWV4/?utm_source=naver&amp;utm_medium=original&amp;utm_campaign=biz</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>조선비즈</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>서울경찰청 "추석 연휴 5대 범죄 전년 대비 5% 감소"</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>https://imnews.imbc.com/news/2021/society/article/6302196_34873.html</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>MBC</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>오후 9시 기준 1603명…추석 이후 코로나 재확산 우려</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>http://news.kmib.co.kr/article/view.asp?arcid=0016292740&amp;code=61121111&amp;cp=nv</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>국민일보</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>추석에 창원서 40대 남성 흉기 난동...1명 사망·4명 부상</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>https://www.ytn.co.kr/_ln/0115_202109221127070298</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>YTN</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>추석 마지막날 고속도로 곳곳 정체 …부산→서울 5시간50분</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>http://www.fnnews.com/news/202109221344016452</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>파이낸셜뉴스</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>‘모가디슈’ 추석 역주행…350만 돌파</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>http://sports.khan.co.kr/news/sk_index.html?art_id=202109220953003&amp;sec_id=540401&amp;pt=nv</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>스포츠경향</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>[초점] 추석 이후, 추가 '대출 규제' 예고…돈줄 더 막힐까</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>http://www.inews24.com/view/1405755</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>아이뉴스24</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
